--- a/biology/Botanique/Furcellariaceae/Furcellariaceae.xlsx
+++ b/biology/Botanique/Furcellariaceae/Furcellariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Furcellariaceae sont une famille d'algues rouges de l'ordre des Gigartinales.
 </t>
@@ -511,22 +523,24 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 avril 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 avril 2014) :
 genre Fastigiaria Stackhouse
 genre Furcellaria J.V.Lamouroux
 genre Halarachnion Kützing
 genre Neurocaulon Zanardini ex Kützing
 genre Opuntiella Kylin
 genre Turnerella F.Schmitz
-Selon ITIS      (3 avril 2014)[2] :
+Selon ITIS      (3 avril 2014) :
 genre Furcellaria
 genre Halarachnion
-Selon NCBI  (3 avril 2014)[3] :
+Selon NCBI  (3 avril 2014) :
 genre Furcellaria
 genre Halarachnion
-Selon World Register of Marine Species                               (3 avril 201)[4] :
+Selon World Register of Marine Species                               (3 avril 201) :
 genre Furcellaria J.V.Lamouroux, 1813
 genre Halarachnion  Kützing, 1843
 genre Neurocaulon Zanardini ex Kützing, 1849
